--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -1,121 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spots\home\pyork1\AIST2120\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Homeworks" sheetId="1" r:id="rId1"/>
+    <sheet name="Homeworks" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Smith, Michael</t>
-  </si>
-  <si>
-    <t>msmith@augusta.edu</t>
-  </si>
-  <si>
-    <t>HW1</t>
-  </si>
-  <si>
-    <t>HW2</t>
-  </si>
-  <si>
-    <t>HW3</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>mmcfly@augusta.edu</t>
-  </si>
-  <si>
-    <t>cbork@augusta.edu</t>
-  </si>
-  <si>
-    <t>gisle@augusta.edu</t>
-  </si>
-  <si>
-    <t>cnewton@augusta.edu</t>
-  </si>
-  <si>
-    <t>sride@augusta.edu</t>
-  </si>
-  <si>
-    <t>McFly, Marty</t>
-  </si>
-  <si>
-    <t>Bork, Candice</t>
-  </si>
-  <si>
-    <t>Isle, Gilligan</t>
-  </si>
-  <si>
-    <t>Newton, Cam</t>
-  </si>
-  <si>
-    <t>Ride, Sally</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>HW4</t>
-  </si>
-  <si>
-    <t>HW5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,147 +51,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>943035</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>943395</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76665</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Ink 2"/>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="943035" y="447585"/>
-            <a:ext cx="360" cy="10080"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Ink 2"/>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="931155" y="435705"/>
-              <a:ext cx="24120" cy="33840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="1366" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="768" units="cm"/>
-          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="28.34025" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="28.33948" units="1/cm"/>
-          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2019-04-02T20:00:05.900"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
-      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{BC437306-3FC7-4C86-A7B3-A6F36BB16B77}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="2619,1243 2619,1270 2604,1270 2604,1243" shapeName="Other"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 0,'0'27'31</inkml:trace>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table1" headerRowCount="1" id="1" name="Table1" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7"/>
   <sortState ref="A2:H7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Email" dataCellStyle="Hyperlink"/>
+    <tableColumn dataCellStyle="Hyperlink" id="2" name="Email"/>
     <tableColumn id="3" name="HW1"/>
     <tableColumn id="4" name="HW2"/>
     <tableColumn id="5" name="HW3"/>
     <tableColumn id="8" name="HW4"/>
     <tableColumn id="7" name="HW5"/>
-    <tableColumn id="6" name="AVERAGE" dataDxfId="0">
+    <tableColumn dataDxfId="0" id="6" name="AVERAGE">
       <calculatedColumnFormula>AVERAGE(C2:G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -571,185 +389,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="14.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="21.85546875"/>
+    <col customWidth="1" max="8" min="8" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>HW1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>HW2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>HW3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>HW4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>HW5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AVERAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bork, Candice</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>cbork@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(C2:G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Isle, Gilligan</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>gisle@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(C3:G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>McFly, Marty</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>mmcfly@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(C4:G4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Newton, Cam</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>cnewton@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" t="n">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="H5">
+        <f>AVERAGE(C5:G5)</f>
+        <v/>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ride, Sally</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>sride@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C6:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Smith, Michael</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>msmith@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">AVERAGE(C2:G2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>23.666666666666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
+      <c r="F7" t="n">
         <v>27</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>27.333333333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>AVERAGE(C7:G7)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Homeworks" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -397,7 +397,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
